--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_10_02 17_11_07.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_10_02 17_11_07.xlsx
@@ -7044,13 +7044,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DC3CDAE-E8CE-4C52-B05F-ACCA09DED542}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D9F39C4-C4A8-4E7F-96F6-1FD478792091}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148E2488-FCB4-4FEE-B95A-F8D61E3710D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FFAF066-D898-404A-A550-64F95D6F532C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C371E7D1-7FAB-4798-8B63-2B15E0B8CC02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED87918-09DC-4813-B3E2-1E59CF216FA5}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_10_02 17_11_07.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_10_02 17_11_07.xlsx
@@ -7044,13 +7044,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D9F39C4-C4A8-4E7F-96F6-1FD478792091}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67AADE0C-85AF-48BE-976E-06B730D59C39}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FFAF066-D898-404A-A550-64F95D6F532C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC3B520-FC70-4188-BCAC-170D1FA0D6AB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED87918-09DC-4813-B3E2-1E59CF216FA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B88194E-3791-4EC3-B849-F4A46E33A2AB}"/>
 </file>